--- a/estadoDelArte/busqueda.xlsx
+++ b/estadoDelArte/busqueda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ronald Fernando\dauruxu\estadoDelArte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E39954-CE43-4EB1-BBD9-B2A416BEB6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63E9F59-940A-4B42-AB78-2CC9FA5B2BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="360" windowWidth="20244" windowHeight="11688" activeTab="1" xr2:uid="{B8057388-C5BB-468B-B9C5-EFC8BA815F10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B8057388-C5BB-468B-B9C5-EFC8BA815F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -570,15 +570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,6 +578,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2350,7 +2353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A72FAF-4E99-41B1-9D17-FBFCC9F813EC}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2740,16 +2743,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105329C-4417-425B-9293-5156668E5BB5}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="18" width="9.6640625" customWidth="1"/>
@@ -2759,26 +2762,26 @@
       <c r="B1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -2833,18 +2836,18 @@
       <c r="R2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>9</v>
       </c>
       <c r="D3" s="9"/>
@@ -2868,11 +2871,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>13</v>
       </c>
       <c r="D4" s="9"/>
@@ -2896,11 +2899,11 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>77</v>
       </c>
       <c r="D5" s="9"/>
@@ -2924,11 +2927,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>218</v>
       </c>
       <c r="D6" s="9"/>
@@ -2952,11 +2955,11 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>672</v>
       </c>
       <c r="D7" s="9"/>
@@ -2980,11 +2983,11 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>24057</v>
       </c>
       <c r="D8" s="9"/>
@@ -3008,13 +3011,13 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>24</v>
       </c>
       <c r="D9" s="9"/>
@@ -3038,11 +3041,11 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>214</v>
       </c>
       <c r="D10" s="9"/>
@@ -3066,11 +3069,11 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>250</v>
       </c>
       <c r="D11" s="9"/>
@@ -3094,11 +3097,11 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>324</v>
       </c>
       <c r="D12" s="9"/>
@@ -3122,11 +3125,11 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>404</v>
       </c>
       <c r="D13" s="9"/>
@@ -3150,11 +3153,11 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>463</v>
       </c>
       <c r="D14" s="9"/>
@@ -3178,11 +3181,11 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>625</v>
       </c>
       <c r="D15" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>999</v>
       </c>
       <c r="D16" s="9"/>
@@ -3234,11 +3237,11 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>2497</v>
       </c>
       <c r="D17" s="9"/>
@@ -3262,11 +3265,11 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>7909</v>
       </c>
       <c r="D18" s="9"/>
@@ -3290,11 +3293,11 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>8370</v>
       </c>
       <c r="D19" s="9"/>
@@ -3318,11 +3321,11 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>11787</v>
       </c>
       <c r="D20" s="9"/>
@@ -3346,11 +3349,11 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>12516</v>
       </c>
       <c r="D21" s="9"/>
@@ -3374,11 +3377,11 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>54469</v>
       </c>
       <c r="D22" s="9"/>
@@ -3402,11 +3405,11 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>101106</v>
       </c>
       <c r="D23" s="9"/>
@@ -3430,11 +3433,11 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>302437</v>
       </c>
       <c r="D24" s="9"/>
@@ -3457,6 +3460,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C8">
     <sortCondition ref="C3:C8"/>
